--- a/急性A型肝炎_検査推移.xlsx
+++ b/急性A型肝炎_検査推移.xlsx
@@ -22,18 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WBC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FDP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PT%</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -73,6 +61,27 @@
   </si>
   <si>
     <t>CRP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血小板</t>
+    <rPh sb="0" eb="3">
+      <t>ケッショウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異型リンパ球</t>
+    <rPh sb="0" eb="2">
+      <t>イケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IgM-HA</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -132,8 +141,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="81">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -194,6 +247,28 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -213,6 +288,28 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -543,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F21:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -558,40 +655,40 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -605,6 +702,12 @@
       <c r="D2">
         <v>3.8</v>
       </c>
+      <c r="E2">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
       <c r="H2">
         <v>741</v>
       </c>
@@ -641,6 +744,12 @@
       <c r="D3">
         <v>2.2999999999999998</v>
       </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>2.34</v>
+      </c>
       <c r="H3">
         <v>815</v>
       </c>
@@ -680,6 +789,9 @@
       <c r="D4">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E4">
+        <v>76</v>
+      </c>
       <c r="H4">
         <v>905</v>
       </c>
@@ -716,6 +828,12 @@
       <c r="D5">
         <v>2.8</v>
       </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
       <c r="H5">
         <v>941</v>
       </c>
@@ -755,6 +873,12 @@
       <c r="D6">
         <v>2.8</v>
       </c>
+      <c r="E6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6">
         <v>1018</v>
       </c>
@@ -794,6 +918,9 @@
       <c r="D7">
         <v>1.7</v>
       </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
       <c r="H7">
         <v>1131</v>
       </c>
@@ -830,6 +957,9 @@
       <c r="D8">
         <v>7.2</v>
       </c>
+      <c r="E8">
+        <v>124</v>
+      </c>
       <c r="H8">
         <v>1110</v>
       </c>
@@ -866,6 +996,9 @@
       <c r="D9">
         <v>7.7</v>
       </c>
+      <c r="E9">
+        <v>131</v>
+      </c>
       <c r="H9">
         <v>855</v>
       </c>
@@ -902,6 +1035,12 @@
       <c r="D10">
         <v>11.8</v>
       </c>
+      <c r="E10">
+        <v>139</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
       <c r="H10">
         <v>901</v>
       </c>
@@ -941,6 +1080,12 @@
       <c r="D11">
         <v>9.5</v>
       </c>
+      <c r="E11">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>27</v>
+      </c>
       <c r="H11">
         <v>720</v>
       </c>
@@ -980,6 +1125,15 @@
       <c r="D12">
         <v>5.8</v>
       </c>
+      <c r="E12">
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <v>7.76</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
       <c r="H12">
         <v>758</v>
       </c>
@@ -1019,6 +1173,12 @@
       <c r="D13">
         <v>4.2</v>
       </c>
+      <c r="E13">
+        <v>129</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
       <c r="H13">
         <v>794</v>
       </c>
@@ -1055,6 +1215,12 @@
       <c r="D14">
         <v>3</v>
       </c>
+      <c r="E14">
+        <v>121</v>
+      </c>
+      <c r="F14">
+        <v>6.16</v>
+      </c>
       <c r="H14">
         <v>701</v>
       </c>
@@ -1091,6 +1257,12 @@
       <c r="D15">
         <v>3.2</v>
       </c>
+      <c r="E15">
+        <v>137</v>
+      </c>
+      <c r="F15">
+        <v>5.77</v>
+      </c>
       <c r="H15">
         <v>629</v>
       </c>
@@ -1127,6 +1299,12 @@
       <c r="D16">
         <v>4.9000000000000004</v>
       </c>
+      <c r="E16">
+        <v>130</v>
+      </c>
+      <c r="F16">
+        <v>3.74</v>
+      </c>
       <c r="H16">
         <v>320</v>
       </c>
@@ -1163,6 +1341,9 @@
       <c r="D17">
         <v>3.7</v>
       </c>
+      <c r="E17">
+        <v>147</v>
+      </c>
       <c r="H17">
         <v>246</v>
       </c>
@@ -1199,6 +1380,9 @@
       <c r="D18">
         <v>3.9</v>
       </c>
+      <c r="E18">
+        <v>150</v>
+      </c>
       <c r="H18">
         <v>211</v>
       </c>
@@ -1225,648 +1409,764 @@
       </c>
     </row>
     <row r="20" spans="1:16">
+      <c r="E20" t="str">
+        <f t="shared" ref="E20:G20" si="1">"["&amp;$B2&amp;","&amp;E2&amp;"]"</f>
+        <v>[0,92]</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>[0,1]</v>
+      </c>
       <c r="H20" t="str">
         <f>"["&amp;$B2&amp;","&amp;H2&amp;"]"</f>
         <v>[0,741]</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" ref="I20:P20" si="1">"["&amp;$B2&amp;","&amp;I2&amp;"]"</f>
+        <f t="shared" ref="I20:P20" si="2">"["&amp;$B2&amp;","&amp;I2&amp;"]"</f>
         <v>[0,718]</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,422]</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,354]</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,652]</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,0.7]</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,0.3]</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,]</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,6.43]</v>
       </c>
     </row>
     <row r="21" spans="1:16">
+      <c r="E21" t="str">
+        <f t="shared" ref="E21:F21" si="3">"["&amp;$B3&amp;","&amp;E3&amp;"]"</f>
+        <v>[1,80]</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>[1,2.34]</v>
+      </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:P21" si="2">"["&amp;$B3&amp;","&amp;H3&amp;"]"</f>
+        <f t="shared" ref="H21:P21" si="4">"["&amp;$B3&amp;","&amp;H3&amp;"]"</f>
         <v>[1,815]</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,1488]</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,952]</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,455]</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,11164]</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,0.9]</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,0.4]</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,35.6]</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[1,6.7]</v>
       </c>
     </row>
     <row r="22" spans="1:16">
+      <c r="E22" t="str">
+        <f t="shared" ref="E22:F22" si="5">"["&amp;$B4&amp;","&amp;E4&amp;"]"</f>
+        <v>[1.33,76]</v>
+      </c>
       <c r="H22" t="str">
-        <f t="shared" ref="H22:P22" si="3">"["&amp;$B4&amp;","&amp;H4&amp;"]"</f>
+        <f t="shared" ref="H22:P22" si="6">"["&amp;$B4&amp;","&amp;H4&amp;"]"</f>
         <v>[1.33,905]</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,1831]</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,1313]</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,512]</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,1341]</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,1]</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,0.6]</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,]</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>[1.33,7.08]</v>
       </c>
     </row>
     <row r="23" spans="1:16">
+      <c r="E23" t="str">
+        <f t="shared" ref="E23:G23" si="7">"["&amp;$B5&amp;","&amp;E5&amp;"]"</f>
+        <v>[2,70]</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="7"/>
+        <v>[2,3]</v>
+      </c>
       <c r="H23" t="str">
-        <f t="shared" ref="H23:P23" si="4">"["&amp;$B5&amp;","&amp;H5&amp;"]"</f>
+        <f t="shared" ref="H23:P23" si="8">"["&amp;$B5&amp;","&amp;H5&amp;"]"</f>
         <v>[2,941]</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,2140]</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,1765]</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,525]</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,1447]</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,1.2]</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,0.8]</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,78.8]</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>[2,6.41]</v>
       </c>
     </row>
     <row r="24" spans="1:16">
+      <c r="E24" t="str">
+        <f t="shared" ref="E24:G24" si="9">"["&amp;$B6&amp;","&amp;E6&amp;"]"</f>
+        <v>[2.33,68]</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="9"/>
+        <v>[2.33,1]</v>
+      </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H24:P24" si="5">"["&amp;$B6&amp;","&amp;H6&amp;"]"</f>
+        <f t="shared" ref="H24:P24" si="10">"["&amp;$B6&amp;","&amp;H6&amp;"]"</f>
         <v>[2.33,1018]</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,2407]</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,2084]</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,542]</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,1530]</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,1.6]</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,1.2]</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,223.5]</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>[2.33,5.96]</v>
       </c>
     </row>
     <row r="25" spans="1:16">
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:F25" si="11">"["&amp;$B7&amp;","&amp;E7&amp;"]"</f>
+        <v>[3,90]</v>
+      </c>
       <c r="H25" t="str">
-        <f t="shared" ref="H25:P25" si="6">"["&amp;$B7&amp;","&amp;H7&amp;"]"</f>
+        <f t="shared" ref="H25:P25" si="12">"["&amp;$B7&amp;","&amp;H7&amp;"]"</f>
         <v>[3,1131]</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,2130]</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,2430]</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,646]</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,1461]</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,2.7]</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,2.1]</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,]</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>[3,6.47]</v>
       </c>
     </row>
     <row r="26" spans="1:16">
+      <c r="E26" t="str">
+        <f t="shared" ref="E26:F26" si="13">"["&amp;$B8&amp;","&amp;E8&amp;"]"</f>
+        <v>[4,124]</v>
+      </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:P26" si="7">"["&amp;$B8&amp;","&amp;H8&amp;"]"</f>
+        <f t="shared" ref="H26:P26" si="14">"["&amp;$B8&amp;","&amp;H8&amp;"]"</f>
         <v>[4,1110]</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,2050]</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,3860]</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,544]</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,890]</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,2.9]</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,2.4]</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,]</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>[4,3.55]</v>
       </c>
     </row>
     <row r="27" spans="1:16">
+      <c r="E27" t="str">
+        <f t="shared" ref="E27:F27" si="15">"["&amp;$B9&amp;","&amp;E9&amp;"]"</f>
+        <v>[4.33,131]</v>
+      </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:P27" si="8">"["&amp;$B9&amp;","&amp;H9&amp;"]"</f>
+        <f t="shared" ref="H27:P27" si="16">"["&amp;$B9&amp;","&amp;H9&amp;"]"</f>
         <v>[4.33,855]</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,1350]</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,2930]</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,493]</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,559]</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,2.8]</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,2.3]</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,]</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>[4.33,2.69]</v>
       </c>
     </row>
     <row r="28" spans="1:16">
+      <c r="E28" t="str">
+        <f t="shared" ref="E28:G28" si="17">"["&amp;$B10&amp;","&amp;E10&amp;"]"</f>
+        <v>[5,139]</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="17"/>
+        <v>[5,40]</v>
+      </c>
       <c r="H28" t="str">
-        <f t="shared" ref="H28:P28" si="9">"["&amp;$B10&amp;","&amp;H10&amp;"]"</f>
+        <f t="shared" ref="H28:P28" si="18">"["&amp;$B10&amp;","&amp;H10&amp;"]"</f>
         <v>[5,901]</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,1237]</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,2620]</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,509]</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,570]</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,3.1]</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,2.5]</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,186.4]</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>[5,2.07]</v>
       </c>
     </row>
     <row r="29" spans="1:16">
+      <c r="E29" t="str">
+        <f t="shared" ref="E29:G29" si="19">"["&amp;$B11&amp;","&amp;E11&amp;"]"</f>
+        <v>[6,140]</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="19"/>
+        <v>[6,27]</v>
+      </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:P29" si="10">"["&amp;$B11&amp;","&amp;H11&amp;"]"</f>
+        <f t="shared" ref="H29:P29" si="20">"["&amp;$B11&amp;","&amp;H11&amp;"]"</f>
         <v>[6,720]</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,1196]</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,2310]</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,453]</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,521]</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,3.6]</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,2.9]</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,161.3]</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>[6,1.3]</v>
       </c>
     </row>
     <row r="30" spans="1:16">
+      <c r="E30" t="str">
+        <f t="shared" ref="E30:G30" si="21">"["&amp;$B12&amp;","&amp;E12&amp;"]"</f>
+        <v>[8,171]</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="21"/>
+        <v>[8,7.76]</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="21"/>
+        <v>[8,20]</v>
+      </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H30:P30" si="11">"["&amp;$B12&amp;","&amp;H12&amp;"]"</f>
+        <f t="shared" ref="H30:P30" si="22">"["&amp;$B12&amp;","&amp;H12&amp;"]"</f>
         <v>[8,758]</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,549]</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,1610]</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,511]</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,261]</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,4.9]</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,4.1]</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,141.2]</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>[8,0.86]</v>
       </c>
     </row>
     <row r="31" spans="1:16">
+      <c r="E31" t="str">
+        <f t="shared" ref="E31:G31" si="23">"["&amp;$B13&amp;","&amp;E13&amp;"]"</f>
+        <v>[12,129]</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="23"/>
+        <v>[12,10]</v>
+      </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:P31" si="12">"["&amp;$B13&amp;","&amp;H13&amp;"]"</f>
+        <f t="shared" ref="H31:P31" si="24">"["&amp;$B13&amp;","&amp;H13&amp;"]"</f>
         <v>[12,794]</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,251]</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,817]</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,460]</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,161]</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,2.4]</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,1.8]</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,]</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>[12,0.59]</v>
       </c>
     </row>
     <row r="32" spans="1:16">
+      <c r="E32" t="str">
+        <f t="shared" ref="E32:F32" si="25">"["&amp;$B14&amp;","&amp;E14&amp;"]"</f>
+        <v>[16,121]</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="25"/>
+        <v>[16,6.16]</v>
+      </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:P32" si="13">"["&amp;$B14&amp;","&amp;H14&amp;"]"</f>
+        <f t="shared" ref="H32:P32" si="26">"["&amp;$B14&amp;","&amp;H14&amp;"]"</f>
         <v>[16,701]</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,93]</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,357]</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,342]</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,136]</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,1.9]</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,1.2]</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,]</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>[16,0.31]</v>
       </c>
     </row>
-    <row r="33" spans="8:16">
+    <row r="33" spans="5:16">
+      <c r="E33" t="str">
+        <f t="shared" ref="E33:F33" si="27">"["&amp;$B15&amp;","&amp;E15&amp;"]"</f>
+        <v>[20,137]</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="27"/>
+        <v>[20,5.77]</v>
+      </c>
       <c r="H33" t="str">
-        <f t="shared" ref="H33:P33" si="14">"["&amp;$B15&amp;","&amp;H15&amp;"]"</f>
+        <f t="shared" ref="H33:P33" si="28">"["&amp;$B15&amp;","&amp;H15&amp;"]"</f>
         <v>[20,629]</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,65]</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,182]</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,253]</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,142]</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,1.3]</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,0.9]</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,]</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>[20,0.27]</v>
       </c>
     </row>
-    <row r="34" spans="8:16">
+    <row r="34" spans="5:16">
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:F34" si="29">"["&amp;$B16&amp;","&amp;E16&amp;"]"</f>
+        <v>[43,130]</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="29"/>
+        <v>[43,3.74]</v>
+      </c>
       <c r="H34" t="str">
-        <f t="shared" ref="H34:P34" si="15">"["&amp;$B16&amp;","&amp;H16&amp;"]"</f>
+        <f t="shared" ref="H34:P34" si="30">"["&amp;$B16&amp;","&amp;H16&amp;"]"</f>
         <v>[43,320]</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,79]</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,130]</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,105]</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,167]</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,0.9]</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,0.5]</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,]</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="30"/>
         <v>[43,0.09]</v>
       </c>
     </row>
-    <row r="35" spans="8:16">
+    <row r="35" spans="5:16">
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:F35" si="31">"["&amp;$B17&amp;","&amp;E17&amp;"]"</f>
+        <v>[71,147]</v>
+      </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:P35" si="16">"["&amp;$B17&amp;","&amp;H17&amp;"]"</f>
+        <f t="shared" ref="H35:P35" si="32">"["&amp;$B17&amp;","&amp;H17&amp;"]"</f>
         <v>[71,246]</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,33]</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,60]</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,64]</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,133]</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,0.6]</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,0.3]</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,]</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="32"/>
         <v>[71,0.07]</v>
       </c>
     </row>
-    <row r="36" spans="8:16">
+    <row r="36" spans="5:16">
+      <c r="E36" t="str">
+        <f t="shared" ref="E36:F36" si="33">"["&amp;$B18&amp;","&amp;E18&amp;"]"</f>
+        <v>[162,150]</v>
+      </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:P36" si="17">"["&amp;$B18&amp;","&amp;H18&amp;"]"</f>
+        <f t="shared" ref="H36:P36" si="34">"["&amp;$B18&amp;","&amp;H18&amp;"]"</f>
         <v>[162,211]</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,21]</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,16]</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,42]</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,133]</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,0.5]</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,0.1]</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,]</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="34"/>
         <v>[162,0.06]</v>
       </c>
     </row>
